--- a/backlog_1.xlsx
+++ b/backlog_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taak OGP\inf-ogp1-20-21-team-practica-groep23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0D4E28-F7A0-4369-800C-543AD07D06C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD93932-3E8D-46BE-9787-346D980013E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -424,8 +433,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -740,7 +749,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,9 +917,12 @@
         <v>7</v>
       </c>
       <c r="D6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
         <v>1</v>
       </c>
     </row>
@@ -925,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>

--- a/backlog_1.xlsx
+++ b/backlog_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD93932-3E8D-46BE-9787-346D980013E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C44DDF-8E55-4F98-8E8C-8CD41A4DC9B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Task Description</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Mijlpaal 8</t>
+  </si>
+  <si>
+    <t>1-&gt;2</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,6 +432,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -749,7 +755,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -937,10 +943,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1078,12 +1087,14 @@
         <v>9</v>
       </c>
       <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="49">
         <v>0</v>
       </c>
-      <c r="E15" s="25">
-        <v>1</v>
-      </c>
-      <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>

--- a/backlog_1.xlsx
+++ b/backlog_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taak OGP\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C44DDF-8E55-4F98-8E8C-8CD41A4DC9B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67383D51-72DD-417C-980A-9B6E246AEA4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Task Description</t>
   </si>
@@ -439,8 +430,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,7 +447,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -755,7 +746,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,12 +961,14 @@
         <v>7</v>
       </c>
       <c r="D9" s="44">
+        <v>1</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1</v>
+      </c>
+      <c r="F9" s="48">
         <v>0</v>
       </c>
-      <c r="E9" s="45">
-        <v>1</v>
-      </c>
-      <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
@@ -999,6 +992,7 @@
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
       <c r="T10" s="35"/>
     </row>
     <row r="11" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1009,12 +1003,14 @@
         <v>7</v>
       </c>
       <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="48">
         <v>0</v>
       </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
@@ -1049,12 +1045,14 @@
         <v>7</v>
       </c>
       <c r="D13" s="40">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="41">
         <v>0</v>
       </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>

--- a/backlog_1.xlsx
+++ b/backlog_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taak OGP\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67383D51-72DD-417C-980A-9B6E246AEA4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EAB316-C748-4E2A-B4F4-9C188B933E77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Task Description</t>
   </si>
@@ -84,12 +84,6 @@
     <t>Implementeer Player</t>
   </si>
   <si>
-    <t>Bernd : Implementeer Game</t>
-  </si>
-  <si>
-    <t>Bernd : Implementeer print</t>
-  </si>
-  <si>
     <t>Mijlpaal 6</t>
   </si>
   <si>
@@ -100,6 +94,27 @@
   </si>
   <si>
     <t>1-&gt;2</t>
+  </si>
+  <si>
+    <t>Implementeer Game</t>
+  </si>
+  <si>
+    <t>Implementeer print</t>
+  </si>
+  <si>
+    <t>Implementeer """"""""AI""""""""""</t>
+  </si>
+  <si>
+    <t>Mijlpaal 9</t>
+  </si>
+  <si>
+    <t>implementeer de game loop</t>
+  </si>
+  <si>
+    <t>Mijlpaal 10</t>
+  </si>
+  <si>
+    <t>implementeer en passent</t>
   </si>
 </sst>
 </file>
@@ -743,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="15">
         <v>0</v>
@@ -1048,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="41">
         <v>0</v>
@@ -1111,7 +1126,7 @@
     <row r="16" spans="1:27" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -1120,13 +1135,13 @@
     </row>
     <row r="17" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="23">
         <v>1</v>
@@ -1136,7 +1151,7 @@
     <row r="18" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -1145,13 +1160,13 @@
     </row>
     <row r="19" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="23">
         <v>1</v>
@@ -1161,7 +1176,7 @@
     <row r="20" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -1169,10 +1184,70 @@
       <c r="T20" s="35"/>
     </row>
     <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="19">
+        <v>100</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
       <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="T22" s="35"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="T24" s="35"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backlog_1.xlsx
+++ b/backlog_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taak OGP\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EAB316-C748-4E2A-B4F4-9C188B933E77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33D52E2-31C1-40D8-B489-132DEF6425F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Task Description</t>
   </si>
@@ -761,7 +761,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1146,9 @@
       <c r="E17" s="23">
         <v>1</v>
       </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1156,6 +1159,7 @@
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="T18" s="35"/>
     </row>
     <row r="19" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1170,6 +1174,9 @@
       </c>
       <c r="E19" s="23">
         <v>1</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
       </c>
       <c r="T19" s="23"/>
     </row>
@@ -1219,10 +1226,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="13">
         <v>0</v>
-      </c>
-      <c r="E23" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1246,6 +1256,9 @@
         <v>0</v>
       </c>
       <c r="E25" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13">
         <v>1</v>
       </c>
     </row>

--- a/backlog_1.xlsx
+++ b/backlog_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taak OGP\inf-ogp1-20-21-team-practica-groep23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33D52E2-31C1-40D8-B489-132DEF6425F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30629487-1D0D-494F-A873-A02692C53434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Task Description</t>
   </si>
@@ -108,13 +117,16 @@
     <t>Mijlpaal 9</t>
   </si>
   <si>
-    <t>implementeer de game loop</t>
-  </si>
-  <si>
     <t>Mijlpaal 10</t>
   </si>
   <si>
-    <t>implementeer en passent</t>
+    <t>Implementeer en passent</t>
+  </si>
+  <si>
+    <t>Implementeer de game loop</t>
+  </si>
+  <si>
+    <t>Implementeer tiles</t>
   </si>
 </sst>
 </file>
@@ -445,8 +457,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,7 +474,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -758,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1232,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>9</v>
@@ -1238,7 +1250,7 @@
     <row r="24" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -1247,19 +1259,46 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2</v>
+      </c>
+      <c r="G25" s="13">
         <v>0</v>
       </c>
-      <c r="E25" s="13">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1</v>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2</v>
+      </c>
+      <c r="G26" s="13">
+        <v>2</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backlog_1.xlsx
+++ b/backlog_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30629487-1D0D-494F-A873-A02692C53434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F30D83F-1518-4282-9CD9-07D88970A60E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Task Description</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Implementeer tiles</t>
+  </si>
+  <si>
+    <t>TOTAAL</t>
+  </si>
+  <si>
+    <t>Afgewerkt product</t>
   </si>
 </sst>
 </file>
@@ -462,6 +468,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF660066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -471,6 +482,1017 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11967233146136065"/>
+          <c:y val="0.16202035416285362"/>
+          <c:w val="0.85689020322953513"/>
+          <c:h val="0.63962600634516642"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000042-5CB9-4A14-A767-8D6BE3F71A3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="533103008"/>
+        <c:axId val="533108256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="533103008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dagen voorbij</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533108256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533108256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Taken in uren</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533103008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>595049</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>186524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8B8620-B834-4B1D-B90A-78B54918A983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,8 +2323,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="T27" s="35"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13">
+        <v>14</v>
+      </c>
+      <c r="F28" s="13">
+        <v>4</v>
+      </c>
+      <c r="G28" s="13">
+        <v>2</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>